--- a/KlangValleyIsochroneAnalysis/resources/data/raw_data/klang_valley_stations.xlsx
+++ b/KlangValleyIsochroneAnalysis/resources/data/raw_data/klang_valley_stations.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="429">
   <si>
     <t xml:space="preserve"> Stop Name</t>
   </si>
@@ -52,6 +52,9 @@
     <t xml:space="preserve">Colour Hex Code</t>
   </si>
   <si>
+    <t xml:space="preserve">City</t>
+  </si>
+  <si>
     <t xml:space="preserve">TAMAN WAHYU</t>
   </si>
   <si>
@@ -71,6 +74,9 @@
   </si>
   <si>
     <t xml:space="preserve">#0000FF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuala Lumpur</t>
   </si>
   <si>
     <t xml:space="preserve">KAMPUNG BATU</t>
@@ -1311,7 +1317,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1340,12 +1346,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1390,7 +1390,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1408,10 +1408,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1512,8 +1508,8 @@
   </sheetPr>
   <dimension ref="A1:L206"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A148" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E177" activeCellId="0" sqref="E177"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2:K206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1561,16 +1557,19 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>3.2145439</v>
@@ -1579,30 +1578,33 @@
         <v>101.6721822</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>3.2047963</v>
@@ -1611,30 +1613,33 @@
         <v>101.675646</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>3.1185282</v>
@@ -1643,30 +1648,33 @@
         <v>101.6789854</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>3.1983357</v>
@@ -1675,30 +1683,33 @@
         <v>101.6811632</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>3.2378874</v>
@@ -1707,30 +1718,33 @@
         <v>101.6811872</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>3.1136966</v>
@@ -1739,30 +1753,33 @@
         <v>101.6812992</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>3.1823031</v>
@@ -1771,30 +1788,33 @@
         <v>101.6887043</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>3.165005</v>
@@ -1803,30 +1823,33 @@
         <v>101.691234</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>3.1545422</v>
@@ -1835,30 +1858,33 @@
         <v>101.6930105</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>3.1395126</v>
@@ -1867,30 +1893,33 @@
         <v>101.6937889</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>3.098229</v>
@@ -1899,30 +1928,33 @@
         <v>101.7053567</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>3.076313</v>
@@ -1931,31 +1963,34 @@
         <v>101.711115</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>18</v>
       </c>
       <c r="L13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>3.0231837</v>
@@ -1964,30 +1999,33 @@
         <v>101.7159332</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>3.024255</v>
@@ -1996,30 +2034,33 @@
         <v>101.711018</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>2.9396732</v>
@@ -2028,30 +2069,33 @@
         <v>101.7878345</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>2.983108</v>
@@ -2060,30 +2104,33 @@
         <v>101.7905234</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>2.802336</v>
@@ -2092,30 +2139,33 @@
         <v>101.7998029</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>2.7540314</v>
@@ -2124,30 +2174,33 @@
         <v>101.8266068</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>2.8303933</v>
@@ -2156,30 +2209,33 @@
         <v>101.8268143</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>2.7413407</v>
@@ -2188,30 +2244,33 @@
         <v>101.8719558</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>2.7188308</v>
@@ -2220,30 +2279,33 @@
         <v>101.9404842</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>2.6906203</v>
@@ -2252,30 +2314,33 @@
         <v>101.9717709</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>2.6604935</v>
@@ -2284,30 +2349,33 @@
         <v>101.9961253</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H24" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>2.6604935</v>
@@ -2316,30 +2384,33 @@
         <v>101.9961253</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H25" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D26" s="4" t="n">
         <v>2.4636262</v>
@@ -2348,30 +2419,33 @@
         <v>102.2260987</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D27" s="2" t="n">
         <v>3.134603</v>
@@ -2380,30 +2454,33 @@
         <v>101.686567</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D28" s="4" t="n">
         <v>2.9994585</v>
@@ -2412,30 +2489,33 @@
         <v>101.3913726</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>2</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>76</v>
+      </c>
+      <c r="K28" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D29" s="4" t="n">
         <v>3.013</v>
@@ -2444,30 +2524,33 @@
         <v>101.4026</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>2</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>76</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D30" s="4" t="n">
         <v>3.02016</v>
@@ -2476,30 +2559,33 @@
         <v>101.41028</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>2</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="K30" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D31" s="4" t="n">
         <v>3.03389</v>
@@ -2508,30 +2594,33 @@
         <v>101.42491</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>2</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="K31" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>3.0408108</v>
@@ -2540,30 +2629,33 @@
         <v>101.4321487</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>2</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D33" s="1" t="n">
         <v>3.059611</v>
@@ -2572,30 +2664,33 @@
         <v>101.613235</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>2</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="K33" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>3.0359966</v>
@@ -2604,30 +2699,33 @@
         <v>101.470249</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>2</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="K34" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>3.0523254</v>
@@ -2636,30 +2734,33 @@
         <v>101.4927002</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>2</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="K35" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>3.6847038</v>
@@ -2668,30 +2769,33 @@
         <v>101.5182181</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>2</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="K36" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>3.0564286</v>
@@ -2700,30 +2804,33 @@
         <v>101.5251133</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>2</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="K37" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D38" s="4" t="n">
         <v>3.25826</v>
@@ -2732,30 +2839,33 @@
         <v>101.55473</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>2</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="K38" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D39" s="1" t="n">
         <v>3.084048</v>
@@ -2764,30 +2874,33 @@
         <v>101.658221</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H39" s="0" t="n">
         <v>2</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="K39" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D40" s="4" t="n">
         <v>3.31885</v>
@@ -2796,30 +2909,33 @@
         <v>101.57498</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>2</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="K40" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D41" s="2" t="n">
         <v>3.199906</v>
@@ -2828,30 +2944,33 @@
         <v>101.596992</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H41" s="0" t="n">
         <v>2</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="K41" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D42" s="4" t="n">
         <v>3.08466</v>
@@ -2860,30 +2979,33 @@
         <v>101.588127</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H42" s="0" t="n">
         <v>2</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="K42" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>3.0831687</v>
@@ -2892,30 +3014,33 @@
         <v>101.6114441</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H43" s="0" t="n">
         <v>2</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="K43" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>3.3760667</v>
@@ -2924,30 +3049,33 @@
         <v>101.6144481</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H44" s="0" t="n">
         <v>2</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="K44" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>3.0845398</v>
@@ -2956,30 +3084,33 @@
         <v>101.6218982</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H45" s="0" t="n">
         <v>2</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="K45" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>3.2086928</v>
@@ -2988,30 +3119,33 @@
         <v>101.6285123</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H46" s="0" t="n">
         <v>2</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="K46" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>3.084461</v>
@@ -3020,30 +3154,33 @@
         <v>101.6322709</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H47" s="0" t="n">
         <v>2</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="K47" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>3.5003142</v>
@@ -3052,30 +3189,33 @@
         <v>101.6341973</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H48" s="0" t="n">
         <v>2</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>76</v>
+      </c>
+      <c r="K48" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D49" s="4" t="n">
         <v>3.20281</v>
@@ -3084,30 +3224,33 @@
         <v>101.6374</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H49" s="0" t="n">
         <v>2</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>76</v>
+      </c>
+      <c r="K49" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>3.4683857</v>
@@ -3116,30 +3259,33 @@
         <v>101.6377519</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H50" s="0" t="n">
         <v>2</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>76</v>
+      </c>
+      <c r="K50" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>3.5532917</v>
@@ -3148,30 +3294,33 @@
         <v>101.6395744</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H51" s="0" t="n">
         <v>2</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>76</v>
+      </c>
+      <c r="K51" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D52" s="4" t="n">
         <v>3.0835301</v>
@@ -3180,30 +3329,33 @@
         <v>101.6566414</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H52" s="0" t="n">
         <v>2</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>76</v>
+      </c>
+      <c r="K52" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>3.0862146</v>
@@ -3212,30 +3364,33 @@
         <v>101.6641499</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H53" s="0" t="n">
         <v>2</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>76</v>
+      </c>
+      <c r="K53" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>3.1864391</v>
@@ -3244,30 +3399,33 @@
         <v>101.6642105</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H54" s="0" t="n">
         <v>2</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>76</v>
+      </c>
+      <c r="K54" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>3.0956045</v>
@@ -3276,30 +3434,33 @@
         <v>101.6700133</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H55" s="0" t="n">
         <v>2</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>76</v>
+      </c>
+      <c r="K55" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D56" s="4" t="n">
         <v>3.118735</v>
@@ -3308,30 +3469,33 @@
         <v>101.672897</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H56" s="0" t="n">
         <v>2</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>76</v>
+      </c>
+      <c r="K56" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>3.1135063</v>
@@ -3340,30 +3504,33 @@
         <v>101.6732256</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H57" s="0" t="n">
         <v>2</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="K57" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D58" s="1" t="n">
         <v>3.165005</v>
@@ -3372,30 +3539,33 @@
         <v>101.691234</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H58" s="0" t="n">
         <v>2</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>76</v>
+      </c>
+      <c r="K58" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>3.1545691</v>
@@ -3404,30 +3574,33 @@
         <v>101.6929903</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H59" s="0" t="n">
         <v>2</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>76</v>
+      </c>
+      <c r="K59" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>3.1395804</v>
@@ -3436,30 +3609,33 @@
         <v>101.693629</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H60" s="0" t="n">
         <v>2</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="K60" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D61" s="2" t="n">
         <v>3.134603</v>
@@ -3468,30 +3644,33 @@
         <v>101.686567</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H61" s="0" t="n">
         <v>2</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>76</v>
+      </c>
+      <c r="K61" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D62" s="4" t="n">
         <v>3.1665629</v>
@@ -3500,30 +3679,33 @@
         <v>101.6935944</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H62" s="0" t="n">
         <v>3</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>141</v>
+      </c>
+      <c r="K62" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D63" s="4" t="n">
         <v>3.1611848</v>
@@ -3532,30 +3714,33 @@
         <v>101.6941266</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H63" s="0" t="n">
         <v>3</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>141</v>
+      </c>
+      <c r="K63" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D64" s="4" t="n">
         <v>3.155548</v>
@@ -3564,30 +3749,33 @@
         <v>101.6944058</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H64" s="0" t="n">
         <v>3</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>141</v>
+      </c>
+      <c r="K64" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D65" s="4" t="n">
         <v>3.1735914</v>
@@ -3596,30 +3784,33 @@
         <v>101.6952734</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H65" s="0" t="n">
         <v>3</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>141</v>
+      </c>
+      <c r="K65" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D66" s="4" t="n">
         <v>3.185821</v>
@@ -3628,30 +3819,33 @@
         <v>101.6953347</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H66" s="0" t="n">
         <v>3</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>141</v>
+      </c>
+      <c r="K66" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D67" s="4" t="n">
         <v>3.1785913</v>
@@ -3660,30 +3854,33 @@
         <v>101.6955104</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H67" s="0" t="n">
         <v>3</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>141</v>
+      </c>
+      <c r="K67" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D68" s="4" t="n">
         <v>3.1494618</v>
@@ -3692,30 +3889,33 @@
         <v>101.6963957</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H68" s="0" t="n">
         <v>3</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>141</v>
+      </c>
+      <c r="K68" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D69" s="4" t="n">
         <v>3.1442638</v>
@@ -3724,30 +3924,33 @@
         <v>101.7020543</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H69" s="0" t="n">
         <v>3</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>141</v>
+      </c>
+      <c r="K69" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D70" s="4" t="n">
         <v>3.1398426</v>
@@ -3756,30 +3959,33 @@
         <v>101.7061334</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H70" s="0" t="n">
         <v>3</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>141</v>
+      </c>
+      <c r="K70" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D71" s="4" t="n">
         <v>3.1349203</v>
@@ -3788,62 +3994,68 @@
         <v>101.7120109</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H71" s="0" t="n">
         <v>3</v>
       </c>
       <c r="I71" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
+      </c>
+      <c r="K71" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="D72" s="5" t="n">
+        <v>137</v>
+      </c>
+      <c r="D72" s="2" t="n">
         <v>3.128025</v>
       </c>
-      <c r="E72" s="5" t="n">
+      <c r="E72" s="2" t="n">
         <v>101.715546</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H72" s="0" t="n">
         <v>3</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>141</v>
+      </c>
+      <c r="K72" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D73" s="4" t="n">
         <v>3.1209311</v>
@@ -3852,30 +4064,33 @@
         <v>101.7178611</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H73" s="0" t="n">
         <v>3</v>
       </c>
       <c r="I73" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>141</v>
+      </c>
+      <c r="K73" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D74" s="4" t="n">
         <v>3.1232757</v>
@@ -3884,30 +4099,33 @@
         <v>101.7269463</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H74" s="0" t="n">
         <v>3</v>
       </c>
       <c r="I74" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>141</v>
+      </c>
+      <c r="K74" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D75" s="4" t="n">
         <v>3.130258</v>
@@ -3916,30 +4134,33 @@
         <v>101.738991</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H75" s="0" t="n">
         <v>3</v>
       </c>
       <c r="I75" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>141</v>
+      </c>
+      <c r="K75" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D76" s="4" t="n">
         <v>3.1348266</v>
@@ -3948,30 +4169,33 @@
         <v>101.7467476</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H76" s="0" t="n">
         <v>3</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>141</v>
+      </c>
+      <c r="K76" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D77" s="4" t="n">
         <v>3.1384582</v>
@@ -3980,30 +4204,33 @@
         <v>101.7529449</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H77" s="0" t="n">
         <v>3</v>
       </c>
       <c r="I77" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>141</v>
+      </c>
+      <c r="K77" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D78" s="4" t="n">
         <v>3.1406428</v>
@@ -4012,30 +4239,33 @@
         <v>101.756607</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H78" s="0" t="n">
         <v>3</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>141</v>
+      </c>
+      <c r="K78" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D79" s="4" t="n">
         <v>3.1505123</v>
@@ -4044,30 +4274,33 @@
         <v>101.7601266</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H79" s="0" t="n">
         <v>3</v>
       </c>
       <c r="I79" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>141</v>
+      </c>
+      <c r="K79" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D80" s="4" t="n">
         <v>2.9959685</v>
@@ -4076,30 +4309,33 @@
         <v>101.5755436</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H80" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I80" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>180</v>
+      </c>
+      <c r="K80" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D81" s="4" t="n">
         <v>2.9998922</v>
@@ -4108,30 +4344,33 @@
         <v>101.5967379</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H81" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I81" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>180</v>
+      </c>
+      <c r="K81" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D82" s="4" t="n">
         <v>3.0078521</v>
@@ -4140,30 +4379,33 @@
         <v>101.6052534</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H82" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I82" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>180</v>
+      </c>
+      <c r="K82" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D83" s="4" t="n">
         <v>3.0170653</v>
@@ -4172,30 +4414,33 @@
         <v>101.6128287</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H83" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I83" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>180</v>
+      </c>
+      <c r="K83" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D84" s="4" t="n">
         <v>3.0228113</v>
@@ -4204,30 +4449,33 @@
         <v>101.6134326</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H84" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I84" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>180</v>
+      </c>
+      <c r="K84" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D85" s="4" t="n">
         <v>3.0332844</v>
@@ -4236,62 +4484,68 @@
         <v>101.6161195</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H85" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I85" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
+      </c>
+      <c r="K85" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="D86" s="5" t="n">
+        <v>137</v>
+      </c>
+      <c r="D86" s="2" t="n">
         <v>3.048131</v>
       </c>
-      <c r="E86" s="5" t="n">
+      <c r="E86" s="2" t="n">
         <v>101.620982</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H86" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I86" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>180</v>
+      </c>
+      <c r="K86" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D87" s="4" t="n">
         <v>3.0504561</v>
@@ -4300,30 +4554,33 @@
         <v>101.6441548</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H87" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I87" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
+      </c>
+      <c r="K87" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D88" s="4" t="n">
         <v>3.054838</v>
@@ -4332,30 +4589,33 @@
         <v>101.656693</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H88" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I88" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>180</v>
+      </c>
+      <c r="K88" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D89" s="4" t="n">
         <v>3.061934</v>
@@ -4364,30 +4624,33 @@
         <v>101.6627913</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H89" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I89" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>180</v>
+      </c>
+      <c r="K89" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D90" s="4" t="n">
         <v>3.0620939</v>
@@ -4396,30 +4659,33 @@
         <v>101.6706057</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H90" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I90" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>180</v>
+      </c>
+      <c r="K90" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D91" s="4" t="n">
         <v>3.0615333</v>
@@ -4428,30 +4694,33 @@
         <v>101.687067</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H91" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I91" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>180</v>
+      </c>
+      <c r="K91" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D92" s="4" t="n">
         <v>3.0581476</v>
@@ -4460,30 +4729,33 @@
         <v>101.6922163</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H92" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I92" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>180</v>
+      </c>
+      <c r="K92" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D93" s="4" t="n">
         <v>3.1665629</v>
@@ -4492,30 +4764,33 @@
         <v>101.6935944</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H93" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I93" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>180</v>
+      </c>
+      <c r="K93" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D94" s="4" t="n">
         <v>3.1611848</v>
@@ -4524,30 +4799,33 @@
         <v>101.6941266</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H94" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I94" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>180</v>
+      </c>
+      <c r="K94" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D95" s="4" t="n">
         <v>3.155548</v>
@@ -4556,30 +4834,33 @@
         <v>101.6944058</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H95" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I95" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>180</v>
+      </c>
+      <c r="K95" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D96" s="4" t="n">
         <v>3.1735914</v>
@@ -4588,30 +4869,33 @@
         <v>101.6952734</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H96" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I96" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
+      </c>
+      <c r="K96" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D97" s="4" t="n">
         <v>3.185821</v>
@@ -4620,30 +4904,33 @@
         <v>101.6953347</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H97" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I97" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>180</v>
+      </c>
+      <c r="K97" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D98" s="4" t="n">
         <v>3.1785913</v>
@@ -4652,30 +4939,33 @@
         <v>101.6955104</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H98" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I98" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>180</v>
+      </c>
+      <c r="K98" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D99" s="4" t="n">
         <v>3.1494618</v>
@@ -4684,30 +4974,33 @@
         <v>101.6963957</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H99" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I99" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>180</v>
+      </c>
+      <c r="K99" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D100" s="4" t="n">
         <v>3.1442638</v>
@@ -4716,30 +5009,33 @@
         <v>101.7020543</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H100" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I100" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>180</v>
+      </c>
+      <c r="K100" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D101" s="4" t="n">
         <v>3.1398426</v>
@@ -4748,30 +5044,33 @@
         <v>101.7061334</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H101" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I101" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>180</v>
+      </c>
+      <c r="K101" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D102" s="4" t="n">
         <v>3.1020093</v>
@@ -4780,30 +5079,33 @@
         <v>101.7062726</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H102" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I102" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
+      </c>
+      <c r="K102" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D103" s="4" t="n">
         <v>3.063949</v>
@@ -4812,30 +5114,33 @@
         <v>101.707987</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H103" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I103" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>180</v>
+      </c>
+      <c r="K103" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D104" s="4" t="n">
         <v>3.0760669</v>
@@ -4844,30 +5149,33 @@
         <v>101.7113108</v>
       </c>
       <c r="F104" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H104" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I104" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>180</v>
+      </c>
+      <c r="K104" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D105" s="4" t="n">
         <v>3.1349203</v>
@@ -4876,30 +5184,33 @@
         <v>101.7120109</v>
       </c>
       <c r="F105" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H105" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I105" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>180</v>
+      </c>
+      <c r="K105" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D106" s="4" t="n">
         <v>3.0896262</v>
@@ -4908,30 +5219,33 @@
         <v>101.7124138</v>
       </c>
       <c r="F106" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G106" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H106" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I106" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>180</v>
+      </c>
+      <c r="K106" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D107" s="4" t="n">
         <v>3.1127471</v>
@@ -4940,62 +5254,68 @@
         <v>101.7142134</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H107" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I107" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
+      </c>
+      <c r="K107" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="D108" s="5" t="n">
+        <v>137</v>
+      </c>
+      <c r="D108" s="2" t="n">
         <v>3.128025</v>
       </c>
-      <c r="E108" s="5" t="n">
+      <c r="E108" s="2" t="n">
         <v>101.715546</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G108" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H108" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I108" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>180</v>
+      </c>
+      <c r="K108" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D109" s="4" t="n">
         <v>3.023151</v>
@@ -5004,62 +5324,68 @@
         <v>101.572029</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G109" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H109" s="0" t="n">
         <v>5</v>
       </c>
       <c r="I109" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
+      </c>
+      <c r="K109" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D110" s="4" t="n">
         <v>3.01007</v>
       </c>
-      <c r="E110" s="5" t="n">
+      <c r="E110" s="2" t="n">
         <v>101.57208</v>
       </c>
       <c r="F110" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G110" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H110" s="0" t="n">
         <v>5</v>
       </c>
       <c r="I110" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>229</v>
+      </c>
+      <c r="K110" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D111" s="4" t="n">
         <v>2.996227</v>
@@ -5068,286 +5394,313 @@
         <v>101.575462</v>
       </c>
       <c r="F111" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H111" s="0" t="n">
         <v>5</v>
       </c>
       <c r="I111" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
+      </c>
+      <c r="K111" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D112" s="4" t="n">
         <v>3.029735</v>
       </c>
-      <c r="E112" s="5" t="n">
+      <c r="E112" s="2" t="n">
         <v>101.581854</v>
       </c>
       <c r="F112" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G112" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H112" s="0" t="n">
         <v>5</v>
       </c>
       <c r="I112" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
+      </c>
+      <c r="K112" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D113" s="4" t="n">
         <v>3.066939</v>
       </c>
-      <c r="E113" s="5" t="n">
+      <c r="E113" s="2" t="n">
         <v>101.586167</v>
       </c>
       <c r="F113" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H113" s="0" t="n">
         <v>5</v>
       </c>
       <c r="I113" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
+      </c>
+      <c r="K113" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D114" s="4" t="n">
         <v>3.075895</v>
       </c>
-      <c r="E114" s="5" t="n">
+      <c r="E114" s="2" t="n">
         <v>101.586027</v>
       </c>
       <c r="F114" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G114" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H114" s="0" t="n">
         <v>5</v>
       </c>
       <c r="I114" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
+      </c>
+      <c r="K114" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D115" s="4" t="n">
         <v>3.108452</v>
       </c>
-      <c r="E115" s="5" t="n">
+      <c r="E115" s="2" t="n">
         <v>101.586644</v>
       </c>
       <c r="F115" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H115" s="0" t="n">
         <v>5</v>
       </c>
       <c r="I115" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
+      </c>
+      <c r="K115" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D116" s="4" t="n">
         <v>3.084862</v>
       </c>
-      <c r="E116" s="5" t="n">
+      <c r="E116" s="2" t="n">
         <v>101.58724</v>
       </c>
       <c r="F116" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G116" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H116" s="0" t="n">
         <v>5</v>
       </c>
       <c r="I116" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
+      </c>
+      <c r="K116" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D117" s="4" t="n">
         <v>3.034969</v>
       </c>
-      <c r="E117" s="5" t="n">
+      <c r="E117" s="2" t="n">
         <v>101.588194</v>
       </c>
       <c r="F117" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H117" s="0" t="n">
         <v>5</v>
       </c>
       <c r="I117" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
+      </c>
+      <c r="K117" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D118" s="4" t="n">
         <v>3.047826</v>
       </c>
-      <c r="E118" s="5" t="n">
+      <c r="E118" s="2" t="n">
         <v>101.590201</v>
       </c>
       <c r="F118" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G118" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H118" s="0" t="n">
         <v>5</v>
       </c>
       <c r="I118" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
+      </c>
+      <c r="K118" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D119" s="4" t="n">
         <v>3.095902</v>
       </c>
-      <c r="E119" s="5" t="n">
+      <c r="E119" s="2" t="n">
         <v>101.590474</v>
       </c>
       <c r="F119" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H119" s="0" t="n">
         <v>5</v>
       </c>
       <c r="I119" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>229</v>
+      </c>
+      <c r="K119" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D120" s="4" t="n">
         <v>3.112094</v>
@@ -5356,62 +5709,68 @@
         <v>101.591034</v>
       </c>
       <c r="F120" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G120" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H120" s="0" t="n">
         <v>5</v>
       </c>
       <c r="I120" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
+      </c>
+      <c r="K120" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D121" s="4" t="n">
         <v>3.055025</v>
       </c>
-      <c r="E121" s="5" t="n">
+      <c r="E121" s="2" t="n">
         <v>101.591907</v>
       </c>
       <c r="F121" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H121" s="0" t="n">
         <v>5</v>
       </c>
       <c r="I121" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>229</v>
+      </c>
+      <c r="K121" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D122" s="4" t="n">
         <v>3.112497</v>
@@ -5420,30 +5779,33 @@
         <v>101.6043</v>
       </c>
       <c r="F122" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G122" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H122" s="0" t="n">
         <v>5</v>
       </c>
       <c r="I122" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>229</v>
+      </c>
+      <c r="K122" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D123" s="4" t="n">
         <v>3.11079</v>
@@ -5452,30 +5814,33 @@
         <v>101.612856</v>
       </c>
       <c r="F123" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G123" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H123" s="0" t="n">
         <v>5</v>
       </c>
       <c r="I123" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>229</v>
+      </c>
+      <c r="K123" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D124" s="4" t="n">
         <v>3.104716</v>
@@ -5484,30 +5849,33 @@
         <v>101.623192</v>
       </c>
       <c r="F124" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G124" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H124" s="0" t="n">
         <v>5</v>
       </c>
       <c r="I124" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>229</v>
+      </c>
+      <c r="K124" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D125" s="4" t="n">
         <v>3.104343</v>
@@ -5516,30 +5884,33 @@
         <v>101.637695</v>
       </c>
       <c r="F125" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G125" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H125" s="0" t="n">
         <v>5</v>
       </c>
       <c r="I125" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>229</v>
+      </c>
+      <c r="K125" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D126" s="4" t="n">
         <v>3.104086</v>
@@ -5548,30 +5919,33 @@
         <v>101.645248</v>
       </c>
       <c r="F126" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G126" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H126" s="0" t="n">
         <v>5</v>
       </c>
       <c r="I126" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>229</v>
+      </c>
+      <c r="K126" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D127" s="4" t="n">
         <v>3.114616</v>
@@ -5580,30 +5954,33 @@
         <v>101.661639</v>
       </c>
       <c r="F127" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G127" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H127" s="0" t="n">
         <v>5</v>
       </c>
       <c r="I127" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>229</v>
+      </c>
+      <c r="K127" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D128" s="4" t="n">
         <v>3.115506</v>
@@ -5612,30 +5989,33 @@
         <v>101.668572</v>
       </c>
       <c r="F128" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G128" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H128" s="0" t="n">
         <v>5</v>
       </c>
       <c r="I128" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>229</v>
+      </c>
+      <c r="K128" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D129" s="4" t="n">
         <v>3.118735</v>
@@ -5644,30 +6024,33 @@
         <v>101.672897</v>
       </c>
       <c r="F129" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G129" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H129" s="0" t="n">
         <v>5</v>
       </c>
       <c r="I129" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J129" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>229</v>
+      </c>
+      <c r="K129" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D130" s="4" t="n">
         <v>3.127588</v>
@@ -5676,62 +6059,68 @@
         <v>101.679062</v>
       </c>
       <c r="F130" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G130" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H130" s="0" t="n">
         <v>5</v>
       </c>
       <c r="I130" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J130" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
+      </c>
+      <c r="K130" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D131" s="4" t="n">
         <v>3.134067</v>
       </c>
-      <c r="E131" s="5" t="n">
+      <c r="E131" s="2" t="n">
         <v>101.686535</v>
       </c>
       <c r="F131" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G131" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H131" s="0" t="n">
         <v>5</v>
       </c>
       <c r="I131" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J131" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>229</v>
+      </c>
+      <c r="K131" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D132" s="4" t="n">
         <v>3.142439</v>
@@ -5740,30 +6129,33 @@
         <v>101.69531</v>
       </c>
       <c r="F132" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G132" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H132" s="0" t="n">
         <v>5</v>
       </c>
       <c r="I132" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>229</v>
+      </c>
+      <c r="K132" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D133" s="4" t="n">
         <v>3.149714</v>
@@ -5772,30 +6164,33 @@
         <v>101.696815</v>
       </c>
       <c r="F133" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G133" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H133" s="0" t="n">
         <v>5</v>
       </c>
       <c r="I133" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>229</v>
+      </c>
+      <c r="K133" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D134" s="4" t="n">
         <v>3.156942</v>
@@ -5804,30 +6199,33 @@
         <v>101.701975</v>
       </c>
       <c r="F134" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G134" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H134" s="0" t="n">
         <v>5</v>
       </c>
       <c r="I134" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J134" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>229</v>
+      </c>
+      <c r="K134" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D135" s="4" t="n">
         <v>3.161386</v>
@@ -5836,30 +6234,33 @@
         <v>101.706608</v>
       </c>
       <c r="F135" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G135" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H135" s="0" t="n">
         <v>5</v>
       </c>
       <c r="I135" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J135" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>229</v>
+      </c>
+      <c r="K135" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D136" s="4" t="n">
         <v>3.158935</v>
@@ -5868,30 +6269,33 @@
         <v>101.713287</v>
       </c>
       <c r="F136" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G136" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H136" s="0" t="n">
         <v>5</v>
       </c>
       <c r="I136" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>229</v>
+      </c>
+      <c r="K136" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D137" s="4" t="n">
         <v>3.159894</v>
@@ -5900,30 +6304,33 @@
         <v>101.719017</v>
       </c>
       <c r="F137" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G137" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H137" s="0" t="n">
         <v>5</v>
       </c>
       <c r="I137" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J137" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>229</v>
+      </c>
+      <c r="K137" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D138" s="4" t="n">
         <v>3.219558</v>
@@ -5932,62 +6339,68 @@
         <v>101.72197</v>
       </c>
       <c r="F138" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G138" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H138" s="0" t="n">
         <v>5</v>
       </c>
       <c r="I138" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J138" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
+      </c>
+      <c r="K138" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D139" s="4" t="n">
         <v>3.231206</v>
       </c>
-      <c r="E139" s="5" t="n">
+      <c r="E139" s="2" t="n">
         <v>101.724429</v>
       </c>
       <c r="F139" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G139" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H139" s="0" t="n">
         <v>5</v>
       </c>
       <c r="I139" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J139" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>229</v>
+      </c>
+      <c r="K139" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D140" s="4" t="n">
         <v>3.164406</v>
@@ -5996,30 +6409,33 @@
         <v>101.724489</v>
       </c>
       <c r="F140" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G140" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H140" s="0" t="n">
         <v>5</v>
       </c>
       <c r="I140" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J140" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>229</v>
+      </c>
+      <c r="K140" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D141" s="4" t="n">
         <v>3.205751</v>
@@ -6028,30 +6444,33 @@
         <v>101.731796</v>
       </c>
       <c r="F141" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G141" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H141" s="0" t="n">
         <v>5</v>
       </c>
       <c r="I141" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J141" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>229</v>
+      </c>
+      <c r="K141" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D142" s="4" t="n">
         <v>3.16509</v>
@@ -6060,30 +6479,33 @@
         <v>101.73184</v>
       </c>
       <c r="F142" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G142" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H142" s="0" t="n">
         <v>5</v>
       </c>
       <c r="I142" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J142" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>229</v>
+      </c>
+      <c r="K142" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D143" s="4" t="n">
         <v>3.167204</v>
@@ -6092,30 +6514,33 @@
         <v>101.735344</v>
       </c>
       <c r="F143" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G143" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H143" s="0" t="n">
         <v>5</v>
       </c>
       <c r="I143" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J143" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>229</v>
+      </c>
+      <c r="K143" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D144" s="4" t="n">
         <v>3.17576</v>
@@ -6124,30 +6549,33 @@
         <v>101.73584</v>
       </c>
       <c r="F144" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G144" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H144" s="0" t="n">
         <v>5</v>
       </c>
       <c r="I144" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J144" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>229</v>
+      </c>
+      <c r="K144" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D145" s="4" t="n">
         <v>3.199176</v>
@@ -6156,30 +6584,33 @@
         <v>101.73747</v>
       </c>
       <c r="F145" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G145" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H145" s="0" t="n">
         <v>5</v>
       </c>
       <c r="I145" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J145" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>229</v>
+      </c>
+      <c r="K145" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D146" s="0" t="n">
         <v>2.7445694</v>
@@ -6188,30 +6619,33 @@
         <v>101.685081</v>
       </c>
       <c r="F146" s="0" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G146" s="0" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="H146" s="0" t="n">
         <v>6</v>
       </c>
       <c r="I146" s="0" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="J146" s="3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>303</v>
+      </c>
+      <c r="K146" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D147" s="0" t="n">
         <v>2.7549259</v>
@@ -6220,30 +6654,33 @@
         <v>101.7048248</v>
       </c>
       <c r="F147" s="0" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G147" s="0" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="H147" s="0" t="n">
         <v>6</v>
       </c>
       <c r="I147" s="0" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="J147" s="3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>303</v>
+      </c>
+      <c r="K147" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D148" s="4" t="n">
         <v>3.1326749</v>
@@ -6252,30 +6689,33 @@
         <v>101.6878909</v>
       </c>
       <c r="F148" s="0" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G148" s="0" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="H148" s="0" t="n">
         <v>6</v>
       </c>
       <c r="I148" s="0" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="J148" s="3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>303</v>
+      </c>
+      <c r="K148" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D149" s="0" t="n">
         <v>2.9314193</v>
@@ -6284,30 +6724,33 @@
         <v>101.6708369</v>
       </c>
       <c r="F149" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G149" s="0" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="H149" s="0" t="n">
         <v>7</v>
       </c>
       <c r="I149" s="0" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="J149" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>312</v>
+      </c>
+      <c r="K149" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D150" s="0" t="n">
         <v>2.7445694</v>
@@ -6316,30 +6759,33 @@
         <v>101.685081</v>
       </c>
       <c r="F150" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G150" s="0" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="H150" s="0" t="n">
         <v>7</v>
       </c>
       <c r="I150" s="0" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="J150" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>312</v>
+      </c>
+      <c r="K150" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D151" s="0" t="n">
         <v>2.7549259</v>
@@ -6348,30 +6794,33 @@
         <v>101.7048248</v>
       </c>
       <c r="F151" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G151" s="0" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="H151" s="0" t="n">
         <v>7</v>
       </c>
       <c r="I151" s="0" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="J151" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>312</v>
+      </c>
+      <c r="K151" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D152" s="4" t="n">
         <v>3.0760669</v>
@@ -6380,30 +6829,33 @@
         <v>101.7113108</v>
       </c>
       <c r="F152" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G152" s="0" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="H152" s="0" t="n">
         <v>7</v>
       </c>
       <c r="I152" s="0" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="J152" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>312</v>
+      </c>
+      <c r="K152" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D153" s="0" t="n">
         <v>2.8257973</v>
@@ -6412,30 +6864,33 @@
         <v>101.7133911</v>
       </c>
       <c r="F153" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G153" s="0" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="H153" s="0" t="n">
         <v>7</v>
       </c>
       <c r="I153" s="0" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="J153" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>312</v>
+      </c>
+      <c r="K153" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D154" s="4" t="n">
         <v>3.1326749</v>
@@ -6444,30 +6899,33 @@
         <v>101.6878909</v>
       </c>
       <c r="F154" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G154" s="0" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="H154" s="0" t="n">
         <v>7</v>
       </c>
       <c r="I154" s="0" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="J154" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>312</v>
+      </c>
+      <c r="K154" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D155" s="4" t="n">
         <v>3.1326749</v>
@@ -6476,30 +6934,33 @@
         <v>101.6878909</v>
       </c>
       <c r="F155" s="0" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G155" s="0" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H155" s="0" t="n">
         <v>8</v>
       </c>
       <c r="I155" s="0" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="J155" s="3" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>323</v>
+      </c>
+      <c r="K155" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D156" s="4" t="n">
         <v>3.131452</v>
@@ -6508,30 +6969,33 @@
         <v>101.6908621</v>
       </c>
       <c r="F156" s="0" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G156" s="0" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H156" s="0" t="n">
         <v>8</v>
       </c>
       <c r="I156" s="0" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="J156" s="3" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>323</v>
+      </c>
+      <c r="K156" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D157" s="4" t="n">
         <v>3.1732037</v>
@@ -6540,30 +7004,33 @@
         <v>101.6959641</v>
       </c>
       <c r="F157" s="0" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G157" s="0" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H157" s="0" t="n">
         <v>8</v>
       </c>
       <c r="I157" s="0" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="J157" s="3" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>323</v>
+      </c>
+      <c r="K157" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D158" s="4" t="n">
         <v>3.1673939</v>
@@ -6572,30 +7039,33 @@
         <v>101.6983848</v>
       </c>
       <c r="F158" s="0" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G158" s="0" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H158" s="0" t="n">
         <v>8</v>
       </c>
       <c r="I158" s="0" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="J158" s="3" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>323</v>
+      </c>
+      <c r="K158" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D159" s="4" t="n">
         <v>3.159271</v>
@@ -6604,30 +7074,33 @@
         <v>101.6989</v>
       </c>
       <c r="F159" s="0" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G159" s="0" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H159" s="0" t="n">
         <v>8</v>
       </c>
       <c r="I159" s="0" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="J159" s="3" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>323</v>
+      </c>
+      <c r="K159" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D160" s="4" t="n">
         <v>3.138948</v>
@@ -6636,30 +7109,33 @@
         <v>101.6992026</v>
       </c>
       <c r="F160" s="0" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G160" s="0" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H160" s="0" t="n">
         <v>8</v>
       </c>
       <c r="I160" s="0" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="J160" s="3" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>323</v>
+      </c>
+      <c r="K160" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D161" s="4" t="n">
         <v>3.156244</v>
@@ -6668,30 +7144,33 @@
         <v>101.7047658</v>
       </c>
       <c r="F161" s="0" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G161" s="0" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H161" s="0" t="n">
         <v>8</v>
       </c>
       <c r="I161" s="0" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="J161" s="3" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>323</v>
+      </c>
+      <c r="K161" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D162" s="4" t="n">
         <v>3.1406807</v>
@@ -6700,30 +7179,33 @@
         <v>101.7060366</v>
       </c>
       <c r="F162" s="0" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G162" s="0" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H162" s="0" t="n">
         <v>8</v>
       </c>
       <c r="I162" s="0" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="J162" s="3" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>323</v>
+      </c>
+      <c r="K162" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D163" s="4" t="n">
         <v>3.142812</v>
@@ -6732,30 +7214,33 @@
         <v>101.7094467</v>
       </c>
       <c r="F163" s="0" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G163" s="0" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H163" s="0" t="n">
         <v>8</v>
       </c>
       <c r="I163" s="0" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="J163" s="3" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>323</v>
+      </c>
+      <c r="K163" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D164" s="4" t="n">
         <v>3.1508366</v>
@@ -6764,30 +7249,33 @@
         <v>101.7104423</v>
       </c>
       <c r="F164" s="0" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G164" s="0" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H164" s="0" t="n">
         <v>8</v>
       </c>
       <c r="I164" s="0" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="J164" s="3" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>323</v>
+      </c>
+      <c r="K164" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D165" s="4" t="n">
         <v>3.1460767</v>
@@ -6796,62 +7284,68 @@
         <v>101.7114992</v>
       </c>
       <c r="F165" s="0" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G165" s="0" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H165" s="0" t="n">
         <v>8</v>
       </c>
       <c r="I165" s="0" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="J165" s="3" t="s">
-        <v>321</v>
+        <v>323</v>
+      </c>
+      <c r="K165" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D166" s="4" t="n">
         <v>3.169826</v>
       </c>
-      <c r="E166" s="5" t="n">
+      <c r="E166" s="2" t="n">
         <v>101.564913</v>
       </c>
       <c r="F166" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G166" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H166" s="0" t="n">
         <v>9</v>
       </c>
       <c r="I166" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="J166" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>347</v>
+      </c>
+      <c r="K166" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D167" s="4" t="n">
         <v>3.17615</v>
@@ -6860,30 +7354,33 @@
         <v>101.57205</v>
       </c>
       <c r="F167" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G167" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H167" s="0" t="n">
         <v>9</v>
       </c>
       <c r="I167" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="J167" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>347</v>
+      </c>
+      <c r="K167" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D168" s="4" t="n">
         <v>3.19727</v>
@@ -6892,30 +7389,33 @@
         <v>101.5785</v>
       </c>
       <c r="F168" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G168" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H168" s="0" t="n">
         <v>9</v>
       </c>
       <c r="I168" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="J168" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>347</v>
+      </c>
+      <c r="K168" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D169" s="4" t="n">
         <v>3.15013</v>
@@ -6924,62 +7424,68 @@
         <v>101.57869</v>
       </c>
       <c r="F169" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G169" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H169" s="0" t="n">
         <v>9</v>
       </c>
       <c r="I169" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="J169" s="3" t="s">
-        <v>345</v>
+        <v>347</v>
+      </c>
+      <c r="K169" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D170" s="4" t="n">
         <v>3.206333</v>
       </c>
-      <c r="E170" s="5" t="n">
+      <c r="E170" s="2" t="n">
         <v>101.581736</v>
       </c>
       <c r="F170" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G170" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H170" s="0" t="n">
         <v>9</v>
       </c>
       <c r="I170" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="J170" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>347</v>
+      </c>
+      <c r="K170" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D171" s="4" t="n">
         <v>3.14948</v>
@@ -6988,30 +7494,33 @@
         <v>101.59392</v>
       </c>
       <c r="F171" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G171" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H171" s="0" t="n">
         <v>9</v>
       </c>
       <c r="I171" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="J171" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>347</v>
+      </c>
+      <c r="K171" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D172" s="4" t="n">
         <v>3.1553</v>
@@ -7020,62 +7529,68 @@
         <v>101.60908</v>
       </c>
       <c r="F172" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G172" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H172" s="0" t="n">
         <v>9</v>
       </c>
       <c r="I172" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="J172" s="3" t="s">
-        <v>345</v>
+        <v>347</v>
+      </c>
+      <c r="K172" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D173" s="4" t="n">
         <v>3.146504</v>
       </c>
-      <c r="E173" s="5" t="n">
+      <c r="E173" s="2" t="n">
         <v>101.618798</v>
       </c>
       <c r="F173" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G173" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H173" s="0" t="n">
         <v>9</v>
       </c>
       <c r="I173" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="J173" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>347</v>
+      </c>
+      <c r="K173" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D174" s="4" t="n">
         <v>3.13613</v>
@@ -7084,126 +7599,138 @@
         <v>101.63054</v>
       </c>
       <c r="F174" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G174" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H174" s="0" t="n">
         <v>9</v>
       </c>
       <c r="I174" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="J174" s="3" t="s">
-        <v>345</v>
+        <v>347</v>
+      </c>
+      <c r="K174" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D175" s="4" t="n">
         <v>3.129037</v>
       </c>
-      <c r="E175" s="5" t="n">
+      <c r="E175" s="2" t="n">
         <v>101.643153</v>
       </c>
       <c r="F175" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G175" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H175" s="0" t="n">
         <v>9</v>
       </c>
       <c r="I175" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="J175" s="3" t="s">
-        <v>345</v>
+        <v>347</v>
+      </c>
+      <c r="K175" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D176" s="4" t="n">
         <v>3.143323</v>
       </c>
-      <c r="E176" s="5" t="n">
+      <c r="E176" s="2" t="n">
         <v>101.662374</v>
       </c>
       <c r="F176" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G176" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H176" s="0" t="n">
         <v>9</v>
       </c>
       <c r="I176" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="J176" s="3" t="s">
-        <v>345</v>
+        <v>347</v>
+      </c>
+      <c r="K176" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D177" s="4" t="n">
         <v>3.150982</v>
       </c>
-      <c r="E177" s="5" t="n">
+      <c r="E177" s="2" t="n">
         <v>101.665292</v>
       </c>
       <c r="F177" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G177" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H177" s="0" t="n">
         <v>9</v>
       </c>
       <c r="I177" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="J177" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>347</v>
+      </c>
+      <c r="K177" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D178" s="4" t="n">
         <v>3.13732</v>
@@ -7212,30 +7739,33 @@
         <v>101.68734</v>
       </c>
       <c r="F178" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G178" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H178" s="0" t="n">
         <v>9</v>
       </c>
       <c r="I178" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="J178" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>347</v>
+      </c>
+      <c r="K178" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D179" s="4" t="n">
         <v>3.14229</v>
@@ -7244,30 +7774,33 @@
         <v>101.69556</v>
       </c>
       <c r="F179" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G179" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H179" s="0" t="n">
         <v>9</v>
       </c>
       <c r="I179" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="J179" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>347</v>
+      </c>
+      <c r="K179" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D180" s="4" t="n">
         <v>3.14197</v>
@@ -7276,30 +7809,33 @@
         <v>101.70205</v>
       </c>
       <c r="F180" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G180" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H180" s="0" t="n">
         <v>9</v>
       </c>
       <c r="I180" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="J180" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>347</v>
+      </c>
+      <c r="K180" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D181" s="4" t="n">
         <v>3.1465</v>
@@ -7308,30 +7844,33 @@
         <v>101.71095</v>
       </c>
       <c r="F181" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G181" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H181" s="0" t="n">
         <v>9</v>
       </c>
       <c r="I181" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="J181" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>347</v>
+      </c>
+      <c r="K181" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D182" s="4" t="n">
         <v>3.1424</v>
@@ -7340,30 +7879,33 @@
         <v>101.72016</v>
       </c>
       <c r="F182" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G182" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H182" s="0" t="n">
         <v>9</v>
       </c>
       <c r="I182" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="J182" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>347</v>
+      </c>
+      <c r="K182" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D183" s="4" t="n">
         <v>3.13283</v>
@@ -7372,30 +7914,33 @@
         <v>101.72296</v>
       </c>
       <c r="F183" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G183" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H183" s="0" t="n">
         <v>9</v>
       </c>
       <c r="I183" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="J183" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>347</v>
+      </c>
+      <c r="K183" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D184" s="4" t="n">
         <v>3.12362</v>
@@ -7404,30 +7949,33 @@
         <v>101.72781</v>
       </c>
       <c r="F184" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G184" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H184" s="0" t="n">
         <v>9</v>
       </c>
       <c r="I184" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="J184" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>347</v>
+      </c>
+      <c r="K184" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D185" s="4" t="n">
         <v>3.11255</v>
@@ -7436,30 +7984,33 @@
         <v>101.72937</v>
       </c>
       <c r="F185" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G185" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H185" s="0" t="n">
         <v>9</v>
       </c>
       <c r="I185" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="J185" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>347</v>
+      </c>
+      <c r="K185" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D186" s="4" t="n">
         <v>3.10451</v>
@@ -7468,30 +8019,33 @@
         <v>101.73219</v>
       </c>
       <c r="F186" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G186" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H186" s="0" t="n">
         <v>9</v>
       </c>
       <c r="I186" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="J186" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>347</v>
+      </c>
+      <c r="K186" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D187" s="4" t="n">
         <v>3.09099</v>
@@ -7500,30 +8054,33 @@
         <v>101.74045</v>
       </c>
       <c r="F187" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G187" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H187" s="0" t="n">
         <v>9</v>
       </c>
       <c r="I187" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="J187" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>347</v>
+      </c>
+      <c r="K187" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D188" s="4" t="n">
         <v>3.07917</v>
@@ -7532,30 +8089,33 @@
         <v>101.74522</v>
       </c>
       <c r="F188" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G188" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H188" s="0" t="n">
         <v>9</v>
       </c>
       <c r="I188" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="J188" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>347</v>
+      </c>
+      <c r="K188" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D189" s="4" t="n">
         <v>3.07158</v>
@@ -7564,30 +8124,33 @@
         <v>101.76355</v>
       </c>
       <c r="F189" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G189" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H189" s="0" t="n">
         <v>9</v>
       </c>
       <c r="I189" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="J189" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>347</v>
+      </c>
+      <c r="K189" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D190" s="4" t="n">
         <v>3.02641</v>
@@ -7596,30 +8159,33 @@
         <v>101.77107</v>
       </c>
       <c r="F190" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G190" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H190" s="0" t="n">
         <v>9</v>
       </c>
       <c r="I190" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="J190" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>347</v>
+      </c>
+      <c r="K190" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D191" s="4" t="n">
         <v>3.06227</v>
@@ -7628,30 +8194,33 @@
         <v>101.7729</v>
       </c>
       <c r="F191" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G191" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H191" s="0" t="n">
         <v>9</v>
       </c>
       <c r="I191" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="J191" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>347</v>
+      </c>
+      <c r="K191" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D192" s="4" t="n">
         <v>3.04134</v>
@@ -7660,30 +8229,33 @@
         <v>101.77338</v>
       </c>
       <c r="F192" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G192" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H192" s="0" t="n">
         <v>9</v>
       </c>
       <c r="I192" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="J192" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>347</v>
+      </c>
+      <c r="K192" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D193" s="4" t="n">
         <v>3.04822</v>
@@ -7692,30 +8264,33 @@
         <v>101.77511</v>
       </c>
       <c r="F193" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G193" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H193" s="0" t="n">
         <v>9</v>
       </c>
       <c r="I193" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="J193" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>347</v>
+      </c>
+      <c r="K193" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D194" s="4" t="n">
         <v>3.00095</v>
@@ -7724,30 +8299,33 @@
         <v>101.78386</v>
       </c>
       <c r="F194" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G194" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H194" s="0" t="n">
         <v>9</v>
       </c>
       <c r="I194" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="J194" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>347</v>
+      </c>
+      <c r="K194" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D195" s="4" t="n">
         <v>2.99451</v>
@@ -7756,30 +8334,33 @@
         <v>101.78634</v>
       </c>
       <c r="F195" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G195" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H195" s="0" t="n">
         <v>9</v>
       </c>
       <c r="I195" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="J195" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>347</v>
+      </c>
+      <c r="K195" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D196" s="4" t="n">
         <v>2.98278</v>
@@ -7788,30 +8369,33 @@
         <v>101.79028</v>
       </c>
       <c r="F196" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G196" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H196" s="0" t="n">
         <v>9</v>
       </c>
       <c r="I196" s="0" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="J196" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>347</v>
+      </c>
+      <c r="K196" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D197" s="4" t="n">
         <v>3.13442</v>
@@ -7820,30 +8404,33 @@
         <v>101.55543</v>
       </c>
       <c r="F197" s="0" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G197" s="0" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="H197" s="0" t="n">
         <v>10</v>
       </c>
       <c r="I197" s="0" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="J197" s="3" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>408</v>
+      </c>
+      <c r="K197" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D198" s="4" t="n">
         <v>3.08466</v>
@@ -7852,30 +8439,33 @@
         <v>101.588127</v>
       </c>
       <c r="F198" s="0" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G198" s="0" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="H198" s="0" t="n">
         <v>10</v>
       </c>
       <c r="I198" s="0" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="J198" s="3" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>408</v>
+      </c>
+      <c r="K198" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D199" s="4" t="n">
         <v>3.1326749</v>
@@ -7884,30 +8474,33 @@
         <v>101.6878909</v>
       </c>
       <c r="F199" s="0" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G199" s="0" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="H199" s="0" t="n">
         <v>10</v>
       </c>
       <c r="I199" s="0" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="J199" s="3" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>408</v>
+      </c>
+      <c r="K199" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D200" s="4" t="n">
         <v>3.05525</v>
@@ -7916,30 +8509,33 @@
         <v>101.59198</v>
       </c>
       <c r="F200" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G200" s="0" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="H200" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="I200" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="J200" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="K200" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="B201" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="C201" s="0" t="s">
         <v>412</v>
-      </c>
-      <c r="I200" s="0" t="s">
-        <v>413</v>
-      </c>
-      <c r="J200" s="3" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="0" t="s">
-        <v>415</v>
-      </c>
-      <c r="B201" s="0" t="s">
-        <v>416</v>
-      </c>
-      <c r="C201" s="0" t="s">
-        <v>410</v>
       </c>
       <c r="D201" s="4" t="n">
         <v>3.06162</v>
@@ -7948,30 +8544,33 @@
         <v>101.59681</v>
       </c>
       <c r="F201" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G201" s="0" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="H201" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="I201" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="J201" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="K201" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="B202" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="C202" s="0" t="s">
         <v>412</v>
-      </c>
-      <c r="I201" s="0" t="s">
-        <v>413</v>
-      </c>
-      <c r="J201" s="3" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="0" t="s">
-        <v>417</v>
-      </c>
-      <c r="B202" s="0" t="s">
-        <v>418</v>
-      </c>
-      <c r="C202" s="0" t="s">
-        <v>410</v>
       </c>
       <c r="D202" s="4" t="n">
         <v>3.0653</v>
@@ -7980,30 +8579,33 @@
         <v>101.60161</v>
       </c>
       <c r="F202" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G202" s="0" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="H202" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="I202" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="J202" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="K202" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="B203" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="C203" s="0" t="s">
         <v>412</v>
-      </c>
-      <c r="I202" s="0" t="s">
-        <v>413</v>
-      </c>
-      <c r="J202" s="3" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="0" t="s">
-        <v>419</v>
-      </c>
-      <c r="B203" s="0" t="s">
-        <v>420</v>
-      </c>
-      <c r="C203" s="0" t="s">
-        <v>410</v>
       </c>
       <c r="D203" s="4" t="n">
         <v>3.06554</v>
@@ -8012,30 +8614,33 @@
         <v>101.60861</v>
       </c>
       <c r="F203" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G203" s="0" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="H203" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="I203" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="J203" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="K203" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="B204" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="C204" s="0" t="s">
         <v>412</v>
-      </c>
-      <c r="I203" s="0" t="s">
-        <v>413</v>
-      </c>
-      <c r="J203" s="3" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="0" t="s">
-        <v>421</v>
-      </c>
-      <c r="B204" s="0" t="s">
-        <v>422</v>
-      </c>
-      <c r="C204" s="0" t="s">
-        <v>410</v>
       </c>
       <c r="D204" s="4" t="n">
         <v>3.07613</v>
@@ -8044,30 +8649,33 @@
         <v>101.61023</v>
       </c>
       <c r="F204" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G204" s="0" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="H204" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="I204" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="J204" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="K204" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="B205" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="C205" s="0" t="s">
         <v>412</v>
-      </c>
-      <c r="I204" s="0" t="s">
-        <v>413</v>
-      </c>
-      <c r="J204" s="3" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="0" t="s">
-        <v>423</v>
-      </c>
-      <c r="B205" s="0" t="s">
-        <v>424</v>
-      </c>
-      <c r="C205" s="0" t="s">
-        <v>410</v>
       </c>
       <c r="D205" s="4" t="n">
         <v>3.07065</v>
@@ -8076,30 +8684,33 @@
         <v>101.61079</v>
       </c>
       <c r="F205" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G205" s="0" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="H205" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="I205" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="J205" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="K205" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="B206" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="C206" s="0" t="s">
         <v>412</v>
-      </c>
-      <c r="I205" s="0" t="s">
-        <v>413</v>
-      </c>
-      <c r="J205" s="3" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="0" t="s">
-        <v>425</v>
-      </c>
-      <c r="B206" s="0" t="s">
-        <v>426</v>
-      </c>
-      <c r="C206" s="0" t="s">
-        <v>410</v>
       </c>
       <c r="D206" s="4" t="n">
         <v>3.08292</v>
@@ -8108,19 +8719,22 @@
         <v>101.61228</v>
       </c>
       <c r="F206" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G206" s="0" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="H206" s="0" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="I206" s="0" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="J206" s="3" t="s">
-        <v>414</v>
+        <v>416</v>
+      </c>
+      <c r="K206" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/KlangValleyIsochroneAnalysis/resources/data/raw_data/klang_valley_stations.xlsx
+++ b/KlangValleyIsochroneAnalysis/resources/data/raw_data/klang_valley_stations.xlsx
@@ -22,19 +22,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="429">
   <si>
-    <t xml:space="preserve"> Stop Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Stop ID</t>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stop ID</t>
   </si>
   <si>
     <t xml:space="preserve">Service Provider Name</t>
   </si>
   <si>
-    <t xml:space="preserve">Latitud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longitud</t>
+    <t xml:space="preserve">Latitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longitude</t>
   </si>
   <si>
     <t xml:space="preserve">ROUTE ID</t>
@@ -1487,11 +1487,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Trains" displayName="Trains" ref="A1:J206" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
   <autoFilter ref="A1:J206"/>
   <tableColumns count="10">
-    <tableColumn id="1" name=" Stop Name"/>
-    <tableColumn id="2" name=" Stop ID"/>
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Stop ID"/>
     <tableColumn id="3" name="Service Provider Name"/>
-    <tableColumn id="4" name="Latitud"/>
-    <tableColumn id="5" name="Longitud"/>
+    <tableColumn id="4" name="Latitude"/>
+    <tableColumn id="5" name="Longitude"/>
     <tableColumn id="6" name="ROUTE ID"/>
     <tableColumn id="7" name="Route Name"/>
     <tableColumn id="8" name="Line Number"/>
@@ -1509,7 +1509,7 @@
   <dimension ref="A1:L206"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2:K206"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
